--- a/Spreadsheets/RX5_Sample_Overview.xlsx
+++ b/Spreadsheets/RX5_Sample_Overview.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>INDEX</t>
   </si>
@@ -45,9 +45,15 @@
     <t>HATS</t>
   </si>
   <si>
+    <t xml:space="preserve">HiHat Closed</t>
+  </si>
+  <si>
     <t>PERC</t>
   </si>
   <si>
+    <t>Claps</t>
+  </si>
+  <si>
     <t>MISC</t>
   </si>
   <si>
@@ -63,6 +69,12 @@
     <t xml:space="preserve">Tom 2</t>
   </si>
   <si>
+    <t xml:space="preserve">HiHat Open</t>
+  </si>
+  <si>
+    <t>Tambourine</t>
+  </si>
+  <si>
     <t>Wao</t>
   </si>
   <si>
@@ -75,16 +87,280 @@
     <t xml:space="preserve">Tom 3</t>
   </si>
   <si>
+    <t xml:space="preserve">Ride Cup</t>
+  </si>
+  <si>
+    <t>Cowbell</t>
+  </si>
+  <si>
     <t>Ooo</t>
   </si>
   <si>
+    <t xml:space="preserve">Jazz Bass Drum 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rim Shot 1</t>
   </si>
   <si>
     <t xml:space="preserve">Tom 4</t>
   </si>
   <si>
+    <t xml:space="preserve">Ride Edge</t>
+  </si>
+  <si>
+    <t>Shaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glass Crash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jazz Bass Drum 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rim Shot 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jazz Tom 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crash Cymbal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conga High Mute</t>
+  </si>
+  <si>
+    <t>Gun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fusion Bass Drum 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jazz Snare Drum 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jazz Tom 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China Cymbal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conga High Open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FM Percussion 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fusion Bass Drum 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jazz Snare Drum 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jazz Tom 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jazz HiHat Open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conga Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FM Percussion 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electric Bass Drum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piccolo Snare Drum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fusion Tom 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jazz HiHat Closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bongo High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FM Percussion 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy Bass Drum 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fusion Snare Drum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fusion Tom 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jazz HiHat Pedal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bongo Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-Bass High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy Bass Drum 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electric Snare Drum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fusion Tom 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flat Ride Cymbal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timbale High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-Bass Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy Bass Drum 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy Snare Drum 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy Tom 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cymbal Brush Hit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timbale Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DX Orchestra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process Bass Drum 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy Snare Drum 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy Tom 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mallet Crash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agogo High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DX Marimba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process Bass Drum 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy Snare Drum 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy Tom 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Splash Cymbal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agogo Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DX Clavinet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process Bass Drum 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy Snare Drum 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy Tom 4</t>
+  </si>
+  <si>
+    <t>Cuica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guitar Down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process Snare Drum 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process Tom 1</t>
+  </si>
+  <si>
+    <t>Castanet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guitar Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process Snare Drum 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process Tom 2</t>
+  </si>
+  <si>
+    <t>Whistle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finger Bass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process Snare Drum 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process Tom 3</t>
+  </si>
+  <si>
+    <t>Timpani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Picked Bass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process Snare Drum 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FM Tom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jazz Cowbell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guitar Single</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process Snare Drum 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process Roto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guitar 5th</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process Snare Drum 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hybrid Tom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synth Bass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FM Snare Drum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Door Slam</t>
   </si>
 </sst>
 </file>
@@ -119,9 +395,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+  <cellXfs count="2">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
@@ -640,7 +914,7 @@
     <col bestFit="1" customWidth="1" min="1" max="1" width="18.28125"/>
     <col bestFit="1" customWidth="1" min="3" max="3" width="20.8515625"/>
     <col bestFit="1" customWidth="1" min="4" max="4" width="8.421875"/>
-    <col bestFit="1" customWidth="1" min="7" max="7" width="18.7109375"/>
+    <col bestFit="1" customWidth="1" min="7" max="7" width="22.140625"/>
     <col bestFit="1" customWidth="1" min="11" max="11" width="21.140625"/>
     <col bestFit="1" customWidth="1" min="15" max="15" width="20.57421875"/>
     <col bestFit="1" customWidth="1" min="19" max="19" width="18.28125"/>
@@ -731,20 +1005,32 @@
       <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
       <c r="N2" t="s">
         <v>9</v>
       </c>
+      <c r="O2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
       <c r="R2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="S2" t="s">
+        <v>12</v>
       </c>
       <c r="U2">
         <v>1</v>
       </c>
       <c r="V2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" ht="14.25">
@@ -755,34 +1041,52 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I3">
         <v>2</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="2"/>
-      <c r="R3" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" t="s">
+        <v>19</v>
+      </c>
       <c r="U3">
         <v>2</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="14.25">
@@ -793,14 +1097,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -809,19 +1115,34 @@
         <v>7</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="R4" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4" t="s">
+        <v>25</v>
+      </c>
       <c r="U4">
         <v>3</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" ht="14.25">
@@ -831,27 +1152,52 @@
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="V5" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5">
+        <v>4</v>
+      </c>
+      <c r="V5" s="1"/>
+      <c r="W5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6">
@@ -860,13 +1206,17 @@
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="E6">
         <v>5</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -874,11 +1224,34 @@
       <c r="J6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="V6" s="2"/>
+      <c r="K6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S6" t="s">
+        <v>37</v>
+      </c>
+      <c r="U6">
+        <v>5</v>
+      </c>
+      <c r="V6" s="1"/>
+      <c r="W6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7">
@@ -887,23 +1260,52 @@
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="E7">
         <v>6</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="1"/>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="I7">
         <v>6</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="V7" s="2"/>
+      <c r="J7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
+      <c r="R7" t="s">
+        <v>11</v>
+      </c>
+      <c r="S7" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7">
+        <v>6</v>
+      </c>
+      <c r="V7" s="1"/>
+      <c r="W7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8">
@@ -912,21 +1314,52 @@
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
       <c r="E8">
         <v>7</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="1"/>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="I8">
         <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="N8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="V8" s="2"/>
+      <c r="K8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8">
+        <v>7</v>
+      </c>
+      <c r="R8" t="s">
+        <v>11</v>
+      </c>
+      <c r="S8" t="s">
+        <v>49</v>
+      </c>
+      <c r="U8">
+        <v>7</v>
+      </c>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9">
@@ -935,20 +1368,52 @@
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
       <c r="E9">
         <v>8</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
       <c r="I9">
         <v>8</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="N9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="V9" s="2"/>
+      <c r="J9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q9">
+        <v>8</v>
+      </c>
+      <c r="R9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S9" t="s">
+        <v>55</v>
+      </c>
+      <c r="U9">
+        <v>8</v>
+      </c>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10">
@@ -957,21 +1422,52 @@
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
       <c r="E10">
         <v>9</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="1"/>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="I10">
         <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="1"/>
-      <c r="N10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="V10" s="2"/>
+      <c r="K10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10">
+        <v>9</v>
+      </c>
+      <c r="N10" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q10">
+        <v>9</v>
+      </c>
+      <c r="R10" t="s">
+        <v>11</v>
+      </c>
+      <c r="S10" t="s">
+        <v>61</v>
+      </c>
+      <c r="U10">
+        <v>9</v>
+      </c>
+      <c r="V10" s="1"/>
+      <c r="W10" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11">
@@ -980,22 +1476,52 @@
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E11">
         <v>10</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="1"/>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="I11">
         <v>10</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="N11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="V11" s="2"/>
+      <c r="J11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q11">
+        <v>10</v>
+      </c>
+      <c r="R11" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11" t="s">
+        <v>67</v>
+      </c>
+      <c r="U11">
+        <v>10</v>
+      </c>
+      <c r="V11" s="1"/>
+      <c r="W11" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12">
@@ -1004,296 +1530,578 @@
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="E12">
         <v>11</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
       <c r="I12">
         <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="N12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="V12" s="2"/>
+      <c r="K12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12">
+        <v>11</v>
+      </c>
+      <c r="N12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q12">
+        <v>11</v>
+      </c>
+      <c r="R12" t="s">
+        <v>11</v>
+      </c>
+      <c r="S12" t="s">
+        <v>73</v>
+      </c>
+      <c r="U12">
+        <v>11</v>
+      </c>
+      <c r="V12" s="1"/>
+      <c r="W12" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="B13" s="2"/>
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
       <c r="E13">
         <v>12</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="I13">
         <v>12</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="1"/>
-      <c r="N13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="V13" s="2"/>
+      <c r="J13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13">
+        <v>12</v>
+      </c>
+      <c r="N13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q13">
+        <v>12</v>
+      </c>
+      <c r="R13" t="s">
+        <v>11</v>
+      </c>
+      <c r="S13" t="s">
+        <v>79</v>
+      </c>
+      <c r="U13">
+        <v>12</v>
+      </c>
+      <c r="V13" s="1"/>
+      <c r="W13" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="14" ht="14.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="E14">
         <v>13</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="I14">
         <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="1"/>
-      <c r="N14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="V14" s="2"/>
+      <c r="K14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M14">
+        <v>13</v>
+      </c>
+      <c r="N14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14">
+        <v>13</v>
+      </c>
+      <c r="R14" t="s">
+        <v>11</v>
+      </c>
+      <c r="S14" t="s">
+        <v>85</v>
+      </c>
+      <c r="U14">
+        <v>13</v>
+      </c>
+      <c r="V14" s="1"/>
+      <c r="W14" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="15" ht="14.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E15">
         <v>14</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="I15">
         <v>14</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="1"/>
-      <c r="N15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="V15" s="2"/>
+      <c r="J15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="Q15">
+        <v>14</v>
+      </c>
+      <c r="R15" t="s">
+        <v>11</v>
+      </c>
+      <c r="S15" t="s">
+        <v>90</v>
+      </c>
+      <c r="U15">
+        <v>14</v>
+      </c>
+      <c r="V15" s="1"/>
+      <c r="W15" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="16" ht="14.25">
-      <c r="B16" s="2"/>
+      <c r="B16" s="1"/>
       <c r="E16">
         <v>15</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="I16">
         <v>15</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
+      <c r="K16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="Q16">
+        <v>15</v>
+      </c>
+      <c r="R16" t="s">
+        <v>11</v>
+      </c>
+      <c r="S16" t="s">
+        <v>94</v>
+      </c>
+      <c r="U16">
+        <v>15</v>
+      </c>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="17" ht="14.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="I17">
         <v>16</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="1"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
+      <c r="K17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="Q17">
+        <v>16</v>
+      </c>
+      <c r="R17" t="s">
+        <v>11</v>
+      </c>
+      <c r="S17" t="s">
+        <v>98</v>
+      </c>
+      <c r="U17">
+        <v>16</v>
+      </c>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="18" ht="14.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <v>17</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="Q18">
+        <v>17</v>
+      </c>
+      <c r="R18" t="s">
+        <v>11</v>
+      </c>
+      <c r="S18" t="s">
+        <v>102</v>
+      </c>
+      <c r="U18">
+        <v>17</v>
+      </c>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="19" ht="14.25">
-      <c r="B19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19">
+        <v>18</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="Q19">
+        <v>18</v>
+      </c>
+      <c r="R19" t="s">
+        <v>11</v>
+      </c>
+      <c r="S19" t="s">
+        <v>106</v>
+      </c>
+      <c r="U19">
+        <v>18</v>
+      </c>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="20" ht="14.25">
-      <c r="B20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="E20">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20">
+        <v>19</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="U20">
+        <v>19</v>
+      </c>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="21" ht="14.25">
-      <c r="B21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="U21">
+        <v>20</v>
+      </c>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="22" ht="14.25">
-      <c r="B22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="E22">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="U22">
+        <v>21</v>
+      </c>
+      <c r="W22" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="23" ht="14.25">
-      <c r="B23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="R23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="R23" s="1"/>
     </row>
     <row r="24" ht="14.25">
-      <c r="B24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="R24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="R24" s="1"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="B25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="R25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="R25" s="1"/>
     </row>
     <row r="26" ht="14.25">
-      <c r="B26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="R26" s="2"/>
+      <c r="B26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="R26" s="1"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="B27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="B27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="N27" s="1"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="B28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="R28" s="2"/>
+      <c r="B28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="R28" s="1"/>
     </row>
     <row r="29" ht="14.25">
-      <c r="B29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="R29" s="2"/>
+      <c r="B29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="R29" s="1"/>
     </row>
     <row r="30" ht="14.25">
-      <c r="B30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="R30" s="2"/>
+      <c r="B30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="R30" s="1"/>
     </row>
     <row r="31" ht="14.25">
-      <c r="B31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="R31" s="2"/>
+      <c r="B31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="R31" s="1"/>
     </row>
     <row r="32" ht="14.25">
-      <c r="B32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="R32" s="2"/>
+      <c r="B32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="R32" s="1"/>
     </row>
     <row r="33" ht="14.25">
-      <c r="B33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="R33" s="2"/>
+      <c r="B33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="R33" s="1"/>
     </row>
     <row r="34" ht="14.25">
-      <c r="F34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="R34" s="2"/>
+      <c r="F34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="R34" s="1"/>
     </row>
     <row r="35" ht="14.25">
-      <c r="F35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="R35" s="2"/>
+      <c r="F35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="R35" s="1"/>
     </row>
     <row r="36" ht="14.25">
-      <c r="F36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="R36" s="2"/>
+      <c r="F36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="R36" s="1"/>
     </row>
     <row r="37" ht="14.25">
-      <c r="F37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="R37" s="2"/>
+      <c r="F37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="R37" s="1"/>
     </row>
     <row r="38" ht="14.25">
-      <c r="F38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="R38" s="2"/>
+      <c r="F38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="R38" s="1"/>
     </row>
     <row r="39" ht="14.25">
-      <c r="F39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
+      <c r="F39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
     </row>
     <row r="40" ht="14.25">
-      <c r="F40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
+      <c r="F40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
     </row>
     <row r="41" ht="14.25">
-      <c r="F41" s="2"/>
-      <c r="J41" s="2"/>
+      <c r="F41" s="1"/>
+      <c r="J41" s="1"/>
     </row>
     <row r="42" ht="14.25">
-      <c r="F42" s="2"/>
-      <c r="J42" s="2"/>
+      <c r="F42" s="1"/>
+      <c r="J42" s="1"/>
     </row>
     <row r="43" ht="14.25">
-      <c r="F43" s="2"/>
-      <c r="J43" s="2"/>
+      <c r="F43" s="1"/>
+      <c r="J43" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/Spreadsheets/RX5_Sample_Overview.xlsx
+++ b/Spreadsheets/RX5_Sample_Overview.xlsx
@@ -1194,7 +1194,9 @@
       <c r="U5">
         <v>4</v>
       </c>
-      <c r="V5" s="1"/>
+      <c r="V5" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="W5" t="s">
         <v>32</v>
       </c>
@@ -1248,7 +1250,9 @@
       <c r="U6">
         <v>5</v>
       </c>
-      <c r="V6" s="1"/>
+      <c r="V6" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="W6" t="s">
         <v>38</v>
       </c>
@@ -1302,7 +1306,9 @@
       <c r="U7">
         <v>6</v>
       </c>
-      <c r="V7" s="1"/>
+      <c r="V7" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="W7" t="s">
         <v>44</v>
       </c>
@@ -1356,7 +1362,9 @@
       <c r="U8">
         <v>7</v>
       </c>
-      <c r="V8" s="1"/>
+      <c r="V8" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="W8" s="1" t="s">
         <v>50</v>
       </c>
@@ -1410,7 +1418,9 @@
       <c r="U9">
         <v>8</v>
       </c>
-      <c r="V9" s="1"/>
+      <c r="V9" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="W9" s="1" t="s">
         <v>56</v>
       </c>
@@ -1464,7 +1474,9 @@
       <c r="U10">
         <v>9</v>
       </c>
-      <c r="V10" s="1"/>
+      <c r="V10" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="W10" t="s">
         <v>62</v>
       </c>
@@ -1518,7 +1530,9 @@
       <c r="U11">
         <v>10</v>
       </c>
-      <c r="V11" s="1"/>
+      <c r="V11" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="W11" t="s">
         <v>68</v>
       </c>
@@ -1572,7 +1586,9 @@
       <c r="U12">
         <v>11</v>
       </c>
-      <c r="V12" s="1"/>
+      <c r="V12" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="W12" t="s">
         <v>74</v>
       </c>
@@ -1626,7 +1642,9 @@
       <c r="U13">
         <v>12</v>
       </c>
-      <c r="V13" s="1"/>
+      <c r="V13" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="W13" t="s">
         <v>80</v>
       </c>
@@ -1680,7 +1698,9 @@
       <c r="U14">
         <v>13</v>
       </c>
-      <c r="V14" s="1"/>
+      <c r="V14" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="W14" t="s">
         <v>86</v>
       </c>
@@ -1726,7 +1746,9 @@
       <c r="U15">
         <v>14</v>
       </c>
-      <c r="V15" s="1"/>
+      <c r="V15" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="W15" t="s">
         <v>91</v>
       </c>
@@ -1765,7 +1787,9 @@
       <c r="U16">
         <v>15</v>
       </c>
-      <c r="V16" s="1"/>
+      <c r="V16" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="W16" s="1" t="s">
         <v>95</v>
       </c>
@@ -1805,7 +1829,9 @@
       <c r="U17">
         <v>16</v>
       </c>
-      <c r="V17" s="1"/>
+      <c r="V17" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="W17" s="1" t="s">
         <v>99</v>
       </c>
@@ -1844,7 +1870,9 @@
       <c r="U18">
         <v>17</v>
       </c>
-      <c r="V18" s="1"/>
+      <c r="V18" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="W18" s="1" t="s">
         <v>103</v>
       </c>
@@ -1882,7 +1910,9 @@
       <c r="U19">
         <v>18</v>
       </c>
-      <c r="V19" s="1"/>
+      <c r="V19" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="W19" s="1" t="s">
         <v>107</v>
       </c>
@@ -1913,7 +1943,9 @@
       <c r="U20">
         <v>19</v>
       </c>
-      <c r="V20" s="1"/>
+      <c r="V20" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="W20" s="1" t="s">
         <v>110</v>
       </c>
@@ -1943,7 +1975,9 @@
       <c r="U21">
         <v>20</v>
       </c>
-      <c r="V21" s="1"/>
+      <c r="V21" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="W21" s="1" t="s">
         <v>113</v>
       </c>
@@ -1963,6 +1997,9 @@
       <c r="N22" s="1"/>
       <c r="U22">
         <v>21</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="W22" t="s">
         <v>115</v>
